--- a/uploads/students_info_template.xlsx
+++ b/uploads/students_info_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Six square\Desktop\網管\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13853444-6960-4D74-8528-AE43855A1210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742E54DF-EA14-409A-9B54-EFA381F93ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>註冊狀況</t>
+    <t>備註</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>學生屬性</t>
+    <t>註冊狀況(只能填在學、休學、退學)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>備註</t>
+    <t>學生屬性(只能填本系、外系、外校)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,12 +372,16 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="39.25" customWidth="1"/>
+    <col min="4" max="4" width="36.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,13 +389,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
